--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_3_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_3_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.73000000000011</v>
+        <v>22.83000000000013</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004374607635437844</v>
+        <v>4.271460841698271e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004374607635437844</v>
+        <v>4.271460841698271e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>35.75521629232881</v>
+        <v>54.5261417984353</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[15.745105381489395, 55.765327203168226]</t>
+          <t>[32.24136979362113, 76.81091380324946]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0007919892261649686</v>
+        <v>1.168345493862688e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0007919892261649686</v>
+        <v>1.168345493862688e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.452868674633118</v>
+        <v>2.018921405009658</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.7987632973091161, 2.1069740519571196]</t>
+          <t>[1.603816069400196, 2.434026740619119]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.184054573259544e-05</v>
+        <v>9.883205365213144e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>5.184054573259544e-05</v>
+        <v>9.883205365213144e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>59.156928794933</v>
+        <v>60.83342505429179</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.58926446791388, 70.72459312195213]</t>
+          <t>[48.879266225984225, 72.78758388259936]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.042810365310288e-13</v>
+        <v>2.389199948993337e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.042810365310288e-13</v>
+        <v>2.389199948993337e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>17.4741141141142</v>
+        <v>15.49423423423432</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.1078278278279</v>
+        <v>13.98594594594602</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8404004004005</v>
+        <v>17.00252252252261</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.73000000000011</v>
+        <v>22.83000000000013</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03341344189353179</v>
+        <v>0.01517751521992405</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03341344189353179</v>
+        <v>0.01517751521992405</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>29.33019653971192</v>
+        <v>29.24961833122104</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.21266577737557668, 58.44772730204827]</t>
+          <t>[3.5218839266456747, 54.9773527357964]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.04841887851849358</v>
+        <v>0.02677395336222266</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04841887851849358</v>
+        <v>0.02677395336222266</v>
       </c>
       <c r="P3" t="n">
-        <v>2.434026740619119</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.213868632918579, 3.6541848483196584]</t>
+          <t>[1.415131825941347, 3.050395269251351]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0002206741484349628</v>
+        <v>1.713112408152639e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0002206741484349628</v>
+        <v>1.713112408152639e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>60.75271633197008</v>
+        <v>49.81269475255375</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.1950481791465, 76.31038448479366]</t>
+          <t>[36.088232144508474, 63.53715736059902]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.421592064180913e-10</v>
+        <v>3.541515081195712e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>5.421592064180913e-10</v>
+        <v>3.541515081195712e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>13.92468468468475</v>
+        <v>14.71723723723732</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5106506506507</v>
+        <v>11.74636636636643</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.33871871871881</v>
+        <v>17.68810810810821</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.73000000000011</v>
+        <v>22.83000000000013</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01004548462505039</v>
+        <v>0.009850686790391583</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01004548462505039</v>
+        <v>0.009850686790391583</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>31.80526900500399</v>
+        <v>28.92562630240473</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[3.7239938898782867, 59.886544120129685]</t>
+          <t>[3.7196050555180804, 54.13164754929137]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02732051595807206</v>
+        <v>0.02545142985969484</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02732051595807206</v>
+        <v>0.02545142985969484</v>
       </c>
       <c r="P4" t="n">
-        <v>2.308237244979888</v>
+        <v>2.647868883205812</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.5786581702723477, 3.0378163196874275]</t>
+          <t>[1.5912371198362725, 3.7045006465753514]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.733951850636856e-08</v>
+        <v>7.858704720309362e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>8.733951850636856e-08</v>
+        <v>7.858704720309362e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>60.57997794452901</v>
+        <v>54.17087607937374</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.34981303814912, 74.8101428509089]</t>
+          <t>[41.11233268932314, 67.22941946942434]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.10675945974981e-11</v>
+        <v>1.054585307969091e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>5.10675945974981e-11</v>
+        <v>1.054585307969091e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>14.37973973973981</v>
+        <v>13.20894894894902</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74042042042048</v>
+        <v>9.369669669669726</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.01905905905915</v>
+        <v>17.04822822822832</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.06000000000017</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007628905390837382</v>
+        <v>0.0002053397409436108</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007628905390837382</v>
+        <v>0.0002053397409436108</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.09254768308734</v>
+        <v>50.19147722104001</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[15.31203418372337, 64.87306118245131]</t>
+          <t>[21.137714626249576, 79.24523981583044]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002134552959340619</v>
+        <v>0.001127577451902839</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002134552959340619</v>
+        <v>0.001127577451902839</v>
       </c>
       <c r="P5" t="n">
-        <v>2.836553126664658</v>
+        <v>2.761079429281119</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.119553001521041, 3.5535532518082746]</t>
+          <t>[2.144710900648888, 3.3774479579133505]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.836422290959263e-10</v>
+        <v>1.178279696034679e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>3.836422290959263e-10</v>
+        <v>1.178279696034679e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>59.39662650687655</v>
+        <v>56.99872521809787</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.278028550042094, 73.51522446371101]</t>
+          <t>[41.17273441942574, 72.82471601677001]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.129652423998323e-11</v>
+        <v>4.287203037023346e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>7.129652423998323e-11</v>
+        <v>4.287203037023346e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>12.64952952952962</v>
+        <v>13.20120120120134</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.01805805805813</v>
+        <v>10.89099099099111</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.28100100100111</v>
+        <v>15.51141141141157</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.06000000000017</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>7.910985620773747e-05</v>
+        <v>0.0004924609353286202</v>
       </c>
       <c r="I6" t="n">
-        <v>7.910985620773747e-05</v>
+        <v>0.0004924609353286202</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>38.53260633777735</v>
+        <v>37.71261761473687</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[18.377159642211176, 58.68805303334353]</t>
+          <t>[13.56270234285794, 61.8625328866158]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0003701652167220626</v>
+        <v>0.002938964356721474</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0003701652167220626</v>
+        <v>0.002938964356721474</v>
       </c>
       <c r="P6" t="n">
-        <v>2.937184723176043</v>
+        <v>2.72334258058935</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.320816194543811, 3.5535532518082746]</t>
+          <t>[2.0566582537014257, 3.3900269074772735]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.851629960469836e-12</v>
+        <v>1.612396882677558e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>1.851629960469836e-12</v>
+        <v>1.612396882677558e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>48.4285679645287</v>
+        <v>57.83169080265269</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[36.89751564346983, 59.95962028558756]</t>
+          <t>[45.14726340649075, 70.51611819881462]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.476907981640579e-11</v>
+        <v>7.005507285384738e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>7.476907981640579e-11</v>
+        <v>7.005507285384738e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>12.28020020020029</v>
+        <v>13.34264264264278</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.01805805805813</v>
+        <v>10.84384384384396</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.54234234234245</v>
+        <v>15.84144144144161</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.06000000000017</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001249405770696543</v>
+        <v>0.0001829868893320485</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001249405770696543</v>
+        <v>0.0001829868893320485</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>34.35593438388111</v>
+        <v>35.0439421177985</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[12.696602996551306, 56.01526577121092]</t>
+          <t>[16.07168734306179, 54.01619689253521]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.002557595942077384</v>
+        <v>0.0005502376800994302</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002557595942077384</v>
+        <v>0.0005502376800994302</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.918316298830158</v>
+        <v>2.962342622303888</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.673053272665543, -2.163579324994773]</t>
+          <t>[2.333395144107734, 3.591290100500043]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.030107607164382e-10</v>
+        <v>2.641220575583247e-12</v>
       </c>
       <c r="S7" t="n">
-        <v>7.030107607164382e-10</v>
+        <v>2.641220575583247e-12</v>
       </c>
       <c r="T7" t="n">
-        <v>56.89387826422256</v>
+        <v>48.45918055602299</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.3032209357609, 69.48453559268424]</t>
+          <t>[37.469189168884164, 59.44917194316182]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.123368727159686e-12</v>
+        <v>1.867372922959021e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>9.123368727159686e-12</v>
+        <v>1.867372922959021e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>10.71055055055063</v>
+        <v>12.44684684684698</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.940580580580638</v>
+        <v>10.0894894894896</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.48052052052061</v>
+        <v>14.80420420420436</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_3_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_3_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.83000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.271460841698271e-07</v>
+        <v>0.0002004604897126727</v>
       </c>
       <c r="I2" t="n">
-        <v>4.271460841698271e-07</v>
+        <v>0.0002004604897126727</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>54.5261417984353</v>
+        <v>48.19361533280625</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[32.24136979362113, 76.81091380324946]</t>
+          <t>[21.67441473803602, 74.71281592757647]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.168345493862688e-05</v>
+        <v>0.0006592768399189541</v>
       </c>
       <c r="O2" t="n">
-        <v>1.168345493862688e-05</v>
+        <v>0.0006592768399189541</v>
       </c>
       <c r="P2" t="n">
-        <v>2.018921405009658</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.603816069400196, 2.434026740619119]</t>
+          <t>[0.7107106503616558, 1.9434477076261176]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>9.883205365213144e-13</v>
+        <v>8.060006149679388e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>9.883205365213144e-13</v>
+        <v>8.060006149679388e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>60.83342505429179</v>
+        <v>61.25947954935819</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.879266225984225, 72.78758388259936]</t>
+          <t>[46.64352247749733, 75.87543662121905]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.389199948993337e-13</v>
+        <v>7.916201028024261e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.389199948993337e-13</v>
+        <v>7.916201028024261e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>15.49423423423432</v>
+        <v>17.57421421421425</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.98594594594602</v>
+        <v>15.38858858858862</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.00252252252261</v>
+        <v>19.75983983983987</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.83000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01517751521992405</v>
+        <v>0.04686728433819609</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01517751521992405</v>
+        <v>0.04686728433819609</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>29.24961833122104</v>
+        <v>21.93903956668829</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[3.5218839266456747, 54.9773527357964]</t>
+          <t>[-1.2281208526903455, 45.106199986066926]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.02677395336222266</v>
+        <v>0.06287245554405163</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02677395336222266</v>
+        <v>0.06287245554405163</v>
       </c>
       <c r="P3" t="n">
-        <v>2.232763547596349</v>
+        <v>2.006342455445734</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.415131825941347, 3.050395269251351]</t>
+          <t>[0.37107901213573147, 3.641605898755736]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.713112408152639e-06</v>
+        <v>0.01731962286529676</v>
       </c>
       <c r="S3" t="n">
-        <v>1.713112408152639e-06</v>
+        <v>0.01731962286529676</v>
       </c>
       <c r="T3" t="n">
-        <v>49.81269475255375</v>
+        <v>45.60007019354177</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[36.088232144508474, 63.53715736059902]</t>
+          <t>[33.50975015587454, 57.690390231208994]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.541515081195712e-09</v>
+        <v>1.341434963109123e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.541515081195712e-09</v>
+        <v>1.341434963109123e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>14.71723723723732</v>
+        <v>15.1655655655656</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74636636636643</v>
+        <v>9.366966966966988</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.68810810810821</v>
+        <v>20.96416416416421</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.83000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009850686790391583</v>
+        <v>0.01514098739269887</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009850686790391583</v>
+        <v>0.01514098739269887</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>28.92562630240473</v>
+        <v>29.33485205065402</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[3.7196050555180804, 54.13164754929137]</t>
+          <t>[3.0397575546113558, 55.62994654669669]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02545142985969484</v>
+        <v>0.02959511546564442</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02545142985969484</v>
+        <v>0.02959511546564442</v>
       </c>
       <c r="P4" t="n">
-        <v>2.647868883205812</v>
+        <v>2.245342497160273</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.5912371198362725, 3.7045006465753514]</t>
+          <t>[1.4528686746331179, 3.037816319687428]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.858704720309362e-06</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>7.858704720309362e-06</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>54.17087607937374</v>
+        <v>55.39373170814694</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.11233268932314, 67.22941946942434]</t>
+          <t>[41.566778122980764, 69.22068529331312]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.054585307969091e-10</v>
+        <v>2.736708637485208e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.054585307969091e-10</v>
+        <v>2.736708637485208e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>13.20894894894902</v>
+        <v>14.31807807807811</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.369669669669726</v>
+        <v>11.50798798798801</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.04822822822832</v>
+        <v>17.1281681681682</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.55000000000024</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002053397409436108</v>
+        <v>0.03302935515767857</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002053397409436108</v>
+        <v>0.03302935515767857</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.19147722104001</v>
+        <v>26.63412807511129</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[21.137714626249576, 79.24523981583044]</t>
+          <t>[-0.5611324181484605, 53.829388568371044]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001127577451902839</v>
+        <v>0.05471064208255294</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001127577451902839</v>
+        <v>0.05471064208255294</v>
       </c>
       <c r="P5" t="n">
-        <v>2.761079429281119</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.144710900648888, 3.3774479579133505]</t>
+          <t>[0.8868159442565777, 4.1825007300044295]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.178279696034679e-11</v>
+        <v>0.003351822980181662</v>
       </c>
       <c r="S5" t="n">
-        <v>1.178279696034679e-11</v>
+        <v>0.003351822980181662</v>
       </c>
       <c r="T5" t="n">
-        <v>56.99872521809787</v>
+        <v>56.94136621316645</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.17273441942574, 72.82471601677001]</t>
+          <t>[42.737077290944896, 71.145655135388]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.287203037023346e-09</v>
+        <v>2.690445644049078e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>4.287203037023346e-09</v>
+        <v>2.690445644049078e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>13.20120120120134</v>
+        <v>13.46518518518524</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.89099099099111</v>
+        <v>7.545925925925953</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.51141141141157</v>
+        <v>19.38444444444452</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.55000000000024</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004924609353286202</v>
+        <v>1.017340972864211e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004924609353286202</v>
+        <v>1.017340972864211e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>37.71261761473687</v>
+        <v>44.38626025496658</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[13.56270234285794, 61.8625328866158]</t>
+          <t>[23.65474534144984, 65.11777516848332]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.002938964356721474</v>
+        <v>8.711089778512537e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002938964356721474</v>
+        <v>8.711089778512537e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72334258058935</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.0566582537014257, 3.3900269074772735]</t>
+          <t>[2.283079345852042, 3.3648690083494275]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.612396882677558e-10</v>
+        <v>1.052491427344648e-13</v>
       </c>
       <c r="S6" t="n">
-        <v>1.612396882677558e-10</v>
+        <v>1.052491427344648e-13</v>
       </c>
       <c r="T6" t="n">
-        <v>57.83169080265269</v>
+        <v>62.44013322052807</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.14726340649075, 70.51611819881462]</t>
+          <t>[50.595309484930496, 74.28495695612564]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.005507285384738e-12</v>
+        <v>7.704947790898586e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>7.005507285384738e-12</v>
+        <v>7.704947790898586e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>13.34264264264278</v>
+        <v>12.42592592592598</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.84384384384396</v>
+        <v>10.48296296296301</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.84144144144161</v>
+        <v>14.36888888888894</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.55000000000024</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001829868893320485</v>
+        <v>0.006415666784422847</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001829868893320485</v>
+        <v>0.006415666784422847</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>35.0439421177985</v>
+        <v>34.83610232283618</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[16.07168734306179, 54.01619689253521]</t>
+          <t>[8.696010504455842, 60.976194141216524]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0005502376800994302</v>
+        <v>0.01014118572406431</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0005502376800994302</v>
+        <v>0.01014118572406431</v>
       </c>
       <c r="P7" t="n">
-        <v>2.962342622303888</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.333395144107734, 3.591290100500043]</t>
+          <t>[-3.9875270117636212, -1.9245792832802326]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.641220575583247e-12</v>
+        <v>6.796096501116011e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>2.641220575583247e-12</v>
+        <v>6.796096501116011e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>48.45918055602299</v>
+        <v>74.98465061210899</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[37.469189168884164, 59.44917194316182]</t>
+          <t>[59.89647902719795, 90.07282219702003]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.867372922959021e-11</v>
+        <v>5.044853423896711e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.867372922959021e-11</v>
+        <v>5.044853423896711e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>12.44684684684698</v>
+        <v>10.61851851851856</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.0894894894896</v>
+        <v>6.913333333333356</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.80420420420436</v>
+        <v>14.32370370370376</v>
       </c>
     </row>
   </sheetData>
